--- a/data_processed/20250820/BTCUSDVOLSURFACE_REGULARIZED_20250820.xlsx
+++ b/data_processed/20250820/BTCUSDVOLSURFACE_REGULARIZED_20250820.xlsx
@@ -553,7 +553,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -727,7 +727,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -814,7 +814,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -901,7 +901,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -930,7 +930,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -959,7 +959,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -988,7 +988,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1510,7 +1510,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -5829,7 +5829,7 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -5858,7 +5858,7 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -5974,7 +5974,7 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6003,7 +6003,7 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6032,7 +6032,7 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6119,7 +6119,7 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6148,7 +6148,7 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6235,7 +6235,7 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6293,7 +6293,7 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6322,7 +6322,7 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6380,7 +6380,7 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6409,7 +6409,7 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6525,7 +6525,7 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6554,7 +6554,7 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -6612,7 +6612,7 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -6807,7 +6807,7 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -6865,7 +6865,7 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6894,7 +6894,7 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6981,7 +6981,7 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7151,7 +7151,7 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -7180,7 +7180,7 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -7209,7 +7209,7 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7238,7 +7238,7 @@
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7267,7 +7267,7 @@
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7325,7 +7325,7 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -13248,7 +13248,7 @@
       </c>
       <c r="G487" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -13451,7 +13451,7 @@
       </c>
       <c r="G494" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -18858,7 +18858,7 @@
       </c>
       <c r="G709" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -18887,7 +18887,7 @@
       </c>
       <c r="G710" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -19082,7 +19082,7 @@
       </c>
       <c r="G717" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -23069,7 +23069,7 @@
       </c>
       <c r="G876" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -34782,7 +34782,7 @@
       </c>
       <c r="G1341" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -34811,7 +34811,7 @@
       </c>
       <c r="G1342" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -35344,7 +35344,7 @@
       </c>
       <c r="G1363" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -35402,7 +35402,7 @@
       </c>
       <c r="G1365" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -35431,7 +35431,7 @@
       </c>
       <c r="G1366" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -35489,7 +35489,7 @@
       </c>
       <c r="G1368" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -35576,7 +35576,7 @@
       </c>
       <c r="G1371" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -35634,7 +35634,7 @@
       </c>
       <c r="G1373" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -35692,7 +35692,7 @@
       </c>
       <c r="G1375" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -35866,7 +35866,7 @@
       </c>
       <c r="G1381" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -36507,7 +36507,7 @@
       </c>
       <c r="G1406" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -36565,7 +36565,7 @@
       </c>
       <c r="G1408" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -36619,7 +36619,7 @@
       </c>
       <c r="G1410" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -36706,7 +36706,7 @@
       </c>
       <c r="G1413" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -36818,7 +36818,7 @@
       </c>
       <c r="G1417" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -37783,7 +37783,7 @@
       </c>
       <c r="G1454" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -38178,7 +38178,7 @@
       </c>
       <c r="G1469" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -38207,7 +38207,7 @@
       </c>
       <c r="G1470" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -38381,7 +38381,7 @@
       </c>
       <c r="G1476" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -38410,7 +38410,7 @@
       </c>
       <c r="G1477" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -38555,7 +38555,7 @@
       </c>
       <c r="G1482" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -38584,7 +38584,7 @@
       </c>
       <c r="G1483" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -39341,7 +39341,7 @@
       </c>
       <c r="G1512" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -39428,7 +39428,7 @@
       </c>
       <c r="G1515" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -39486,7 +39486,7 @@
       </c>
       <c r="G1517" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -39544,7 +39544,7 @@
       </c>
       <c r="G1519" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -40126,7 +40126,7 @@
       </c>
       <c r="G1541" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -40184,7 +40184,7 @@
       </c>
       <c r="G1543" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -40329,7 +40329,7 @@
       </c>
       <c r="G1548" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -40503,7 +40503,7 @@
       </c>
       <c r="G1554" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -40561,7 +40561,7 @@
       </c>
       <c r="G1556" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -40669,7 +40669,7 @@
       </c>
       <c r="G1560" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -40698,7 +40698,7 @@
       </c>
       <c r="G1561" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -41497,7 +41497,7 @@
       </c>
       <c r="G1592" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -41551,7 +41551,7 @@
       </c>
       <c r="G1594" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -41721,7 +41721,7 @@
       </c>
       <c r="G1600" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -42437,7 +42437,7 @@
       </c>
       <c r="G1628" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -42466,7 +42466,7 @@
       </c>
       <c r="G1629" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -43236,7 +43236,7 @@
       </c>
       <c r="G1659" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -43323,7 +43323,7 @@
       </c>
       <c r="G1662" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>

--- a/data_processed/20250820/BTCUSDVOLSURFACE_REGULARIZED_20250820.xlsx
+++ b/data_processed/20250820/BTCUSDVOLSURFACE_REGULARIZED_20250820.xlsx
@@ -640,7 +640,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -6554,7 +6554,7 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -23069,7 +23069,7 @@
       </c>
       <c r="G876" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -34782,7 +34782,7 @@
       </c>
       <c r="G1341" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -37783,7 +37783,7 @@
       </c>
       <c r="G1454" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -38178,7 +38178,7 @@
       </c>
       <c r="G1469" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -38555,7 +38555,7 @@
       </c>
       <c r="G1482" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -40669,7 +40669,7 @@
       </c>
       <c r="G1560" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -40698,7 +40698,7 @@
       </c>
       <c r="G1561" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
